--- a/fresh-shop/server/uploads/file/excel/goodsImportTemplate.xlsx
+++ b/fresh-shop/server/uploads/file/excel/goodsImportTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\fresh-shop-group\fresh-shop\server\uploads\file\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A744A51-857E-45AE-9E36-11DAD338F094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD5ECDCC-6A58-466E-ACEA-B1856F729D9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1650" yWindow="2160" windowWidth="27045" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -143,7 +143,8 @@
     <t>注意事项：
 1. *号是必填选项
 2. 图片必须在表格内
-3. 表格第一、第二行不允许修改</t>
+3. 表格第一、第二行不允许修改
+4. 请勿使用 WPS 进行编辑 Excel 表格</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -250,13 +251,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>66674</xdr:colOff>
+      <xdr:colOff>200024</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>1201207</xdr:colOff>
+      <xdr:colOff>1334557</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>695325</xdr:rowOff>
     </xdr:to>
@@ -287,7 +288,157 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15563849" y="1524000"/>
+          <a:off x="15697199" y="1819275"/>
+          <a:ext cx="1134533" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1364192</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>714375</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47BA2072-2B7A-5BCC-DB6B-2AE3882D6E72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15659100" y="2562225"/>
+          <a:ext cx="1202267" cy="676275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1249892</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>723900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{178039B4-983B-4B73-8F60-59D668B1D305}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18497550" y="2571750"/>
+          <a:ext cx="1202267" cy="676275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1191683</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>704850</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6473A17B-24D8-4135-BB91-32AD830362F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17211675" y="2590800"/>
           <a:ext cx="1134533" cy="638175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -566,7 +717,7 @@
   <dimension ref="A1:S38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -583,15 +734,15 @@
     <col min="11" max="11" width="18.625" customWidth="1"/>
     <col min="12" max="12" width="16.375" customWidth="1"/>
     <col min="13" max="13" width="28.75" customWidth="1"/>
-    <col min="14" max="14" width="16.75" customWidth="1"/>
+    <col min="14" max="14" width="21.75" customWidth="1"/>
     <col min="15" max="15" width="17" customWidth="1"/>
-    <col min="16" max="16" width="14" customWidth="1"/>
+    <col min="16" max="16" width="17.125" customWidth="1"/>
     <col min="17" max="17" width="17.25" customWidth="1"/>
     <col min="18" max="18" width="22.125" customWidth="1"/>
     <col min="19" max="19" width="19.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>28</v>
       </c>

--- a/fresh-shop/server/uploads/file/excel/goodsImportTemplate.xlsx
+++ b/fresh-shop/server/uploads/file/excel/goodsImportTemplate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\fresh-shop-group\fresh-shop\server\uploads\file\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD5ECDCC-6A58-466E-ACEA-B1856F729D9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DFB34C4-C81E-447B-9EAC-A8DF5DACD664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1650" yWindow="2160" windowWidth="27045" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -714,10 +714,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S38"/>
+  <dimension ref="A1:U38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -740,9 +740,11 @@
     <col min="17" max="17" width="17.25" customWidth="1"/>
     <col min="18" max="18" width="22.125" customWidth="1"/>
     <col min="19" max="19" width="19.375" customWidth="1"/>
+    <col min="20" max="20" width="18.125" customWidth="1"/>
+    <col min="21" max="21" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>28</v>
       </c>
@@ -753,7 +755,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:19" s="4" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" s="4" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -811,8 +813,10 @@
       <c r="S2" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+    </row>
+    <row r="3" spans="1:21" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -853,7 +857,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
@@ -894,40 +898,40 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:19" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:19" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
     </row>
-    <row r="7" spans="1:19" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
     </row>
-    <row r="8" spans="1:19" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
     </row>
-    <row r="9" spans="1:19" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
     </row>
-    <row r="10" spans="1:19" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
     </row>
-    <row r="11" spans="1:19" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
     </row>
-    <row r="12" spans="1:19" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
     </row>
-    <row r="13" spans="1:19" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
     </row>
-    <row r="14" spans="1:19" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
     </row>
-    <row r="15" spans="1:19" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
     </row>
-    <row r="16" spans="1:19" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
     </row>
     <row r="17" spans="1:1" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
